--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Sort1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.46935825732272</v>
+        <v>2.960814666666666</v>
       </c>
       <c r="H2">
-        <v>1.46935825732272</v>
+        <v>8.882444</v>
       </c>
       <c r="I2">
-        <v>0.3246419696793067</v>
+        <v>0.2614555410777428</v>
       </c>
       <c r="J2">
-        <v>0.3246419696793067</v>
+        <v>0.2614555410777429</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N2">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O2">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P2">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q2">
-        <v>1.584545797274813</v>
+        <v>4.096876293452</v>
       </c>
       <c r="R2">
-        <v>1.584545797274813</v>
+        <v>36.871886641068</v>
       </c>
       <c r="S2">
-        <v>0.0309760232857825</v>
+        <v>0.02112816196510273</v>
       </c>
       <c r="T2">
-        <v>0.0309760232857825</v>
+        <v>0.02112816196510274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.46935825732272</v>
+        <v>2.960814666666666</v>
       </c>
       <c r="H3">
-        <v>1.46935825732272</v>
+        <v>8.882444</v>
       </c>
       <c r="I3">
-        <v>0.3246419696793067</v>
+        <v>0.2614555410777428</v>
       </c>
       <c r="J3">
-        <v>0.3246419696793067</v>
+        <v>0.2614555410777429</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N3">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O3">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P3">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q3">
-        <v>3.577262800718009</v>
+        <v>7.289804025911999</v>
       </c>
       <c r="R3">
-        <v>3.577262800718009</v>
+        <v>65.608236233208</v>
       </c>
       <c r="S3">
-        <v>0.06993131786091666</v>
+        <v>0.0375945352315118</v>
       </c>
       <c r="T3">
-        <v>0.06993131786091666</v>
+        <v>0.03759453523151182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.46935825732272</v>
+        <v>2.960814666666666</v>
       </c>
       <c r="H4">
-        <v>1.46935825732272</v>
+        <v>8.882444</v>
       </c>
       <c r="I4">
-        <v>0.3246419696793067</v>
+        <v>0.2614555410777428</v>
       </c>
       <c r="J4">
-        <v>0.3246419696793067</v>
+        <v>0.2614555410777429</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N4">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O4">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P4">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q4">
-        <v>5.325274280110377</v>
+        <v>12.83819997093289</v>
       </c>
       <c r="R4">
-        <v>5.325274280110377</v>
+        <v>115.543799738396</v>
       </c>
       <c r="S4">
-        <v>0.1041029046857324</v>
+        <v>0.06620838631612573</v>
       </c>
       <c r="T4">
-        <v>0.1041029046857324</v>
+        <v>0.06620838631612574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.46935825732272</v>
+        <v>2.960814666666666</v>
       </c>
       <c r="H5">
-        <v>1.46935825732272</v>
+        <v>8.882444</v>
       </c>
       <c r="I5">
-        <v>0.3246419696793067</v>
+        <v>0.2614555410777428</v>
       </c>
       <c r="J5">
-        <v>0.3246419696793067</v>
+        <v>0.2614555410777429</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N5">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O5">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P5">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q5">
-        <v>6.119634644299642</v>
+        <v>26.47290448635733</v>
       </c>
       <c r="R5">
-        <v>6.119634644299642</v>
+        <v>238.256140377216</v>
       </c>
       <c r="S5">
-        <v>0.1196317238468751</v>
+        <v>0.1365244575650026</v>
       </c>
       <c r="T5">
-        <v>0.1196317238468751</v>
+        <v>0.1365244575650026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.05673015562711</v>
+        <v>0.5933296666666666</v>
       </c>
       <c r="H6">
-        <v>3.05673015562711</v>
+        <v>1.779989</v>
       </c>
       <c r="I6">
-        <v>0.6753580303206933</v>
+        <v>0.05239413691855872</v>
       </c>
       <c r="J6">
-        <v>0.6753580303206933</v>
+        <v>0.05239413691855873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N6">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O6">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P6">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q6">
-        <v>3.296356689979332</v>
+        <v>0.820989666437</v>
       </c>
       <c r="R6">
-        <v>3.296356689979332</v>
+        <v>7.388906997933001</v>
       </c>
       <c r="S6">
-        <v>0.0644399308386388</v>
+        <v>0.004233958118745387</v>
       </c>
       <c r="T6">
-        <v>0.0644399308386388</v>
+        <v>0.004233958118745388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.05673015562711</v>
+        <v>0.5933296666666666</v>
       </c>
       <c r="H7">
-        <v>3.05673015562711</v>
+        <v>1.779989</v>
       </c>
       <c r="I7">
-        <v>0.6753580303206933</v>
+        <v>0.05239413691855872</v>
       </c>
       <c r="J7">
-        <v>0.6753580303206933</v>
+        <v>0.05239413691855873</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N7">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O7">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P7">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q7">
-        <v>7.441838655115816</v>
+        <v>1.460833412322</v>
       </c>
       <c r="R7">
-        <v>7.441838655115816</v>
+        <v>13.147500710898</v>
       </c>
       <c r="S7">
-        <v>0.1454792710102555</v>
+        <v>0.007533721481633148</v>
       </c>
       <c r="T7">
-        <v>0.1454792710102555</v>
+        <v>0.00753372148163315</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.05673015562711</v>
+        <v>0.5933296666666666</v>
       </c>
       <c r="H8">
-        <v>3.05673015562711</v>
+        <v>1.779989</v>
       </c>
       <c r="I8">
-        <v>0.6753580303206933</v>
+        <v>0.05239413691855872</v>
       </c>
       <c r="J8">
-        <v>0.6753580303206933</v>
+        <v>0.05239413691855873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N8">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O8">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P8">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q8">
-        <v>11.07825569283452</v>
+        <v>2.572698992311222</v>
       </c>
       <c r="R8">
-        <v>11.07825569283452</v>
+        <v>23.154290930801</v>
       </c>
       <c r="S8">
-        <v>0.2165669852504613</v>
+        <v>0.0132677672215501</v>
       </c>
       <c r="T8">
-        <v>0.2165669852504613</v>
+        <v>0.0132677672215501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5933296666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.779989</v>
+      </c>
+      <c r="I9">
+        <v>0.05239413691855872</v>
+      </c>
+      <c r="J9">
+        <v>0.05239413691855873</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.941088000000001</v>
+      </c>
+      <c r="N9">
+        <v>26.823264</v>
+      </c>
+      <c r="O9">
+        <v>0.5221708325715213</v>
+      </c>
+      <c r="P9">
+        <v>0.5221708325715213</v>
+      </c>
+      <c r="Q9">
+        <v>5.305012762677333</v>
+      </c>
+      <c r="R9">
+        <v>47.745114864096</v>
+      </c>
+      <c r="S9">
+        <v>0.02735869009663009</v>
+      </c>
+      <c r="T9">
+        <v>0.02735869009663009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.013952</v>
+      </c>
+      <c r="I10">
+        <v>0.0004106783796347794</v>
+      </c>
+      <c r="J10">
+        <v>0.0004106783796347795</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.383699</v>
+      </c>
+      <c r="N10">
+        <v>4.151097</v>
+      </c>
+      <c r="O10">
+        <v>0.08080976933214185</v>
+      </c>
+      <c r="P10">
+        <v>0.08080976933214185</v>
+      </c>
+      <c r="Q10">
+        <v>0.006435122816</v>
+      </c>
+      <c r="R10">
+        <v>0.057916105344</v>
+      </c>
+      <c r="S10">
+        <v>3.31868251279843E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.318682512798431E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.013952</v>
+      </c>
+      <c r="I11">
+        <v>0.0004106783796347794</v>
+      </c>
+      <c r="J11">
+        <v>0.0004106783796347795</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.462094</v>
+      </c>
+      <c r="N11">
+        <v>7.386282</v>
+      </c>
+      <c r="O11">
+        <v>0.1437893994387872</v>
+      </c>
+      <c r="P11">
+        <v>0.1437893994387872</v>
+      </c>
+      <c r="Q11">
+        <v>0.011450378496</v>
+      </c>
+      <c r="R11">
+        <v>0.103053406464</v>
+      </c>
+      <c r="S11">
+        <v>5.905119757017919E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.905119757017922E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.013952</v>
+      </c>
+      <c r="I12">
+        <v>0.0004106783796347794</v>
+      </c>
+      <c r="J12">
+        <v>0.0004106783796347795</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.336036333333333</v>
+      </c>
+      <c r="N12">
+        <v>13.008109</v>
+      </c>
+      <c r="O12">
+        <v>0.2532299986575496</v>
+      </c>
+      <c r="P12">
+        <v>0.2532299986575496</v>
+      </c>
+      <c r="Q12">
+        <v>0.02016545964088889</v>
+      </c>
+      <c r="R12">
+        <v>0.181489136768</v>
+      </c>
+      <c r="S12">
+        <v>0.0001039960855235998</v>
+      </c>
+      <c r="T12">
+        <v>0.0001039960855235999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.013952</v>
+      </c>
+      <c r="I13">
+        <v>0.0004106783796347794</v>
+      </c>
+      <c r="J13">
+        <v>0.0004106783796347795</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.941088000000001</v>
+      </c>
+      <c r="N13">
+        <v>26.823264</v>
+      </c>
+      <c r="O13">
+        <v>0.5221708325715213</v>
+      </c>
+      <c r="P13">
+        <v>0.5221708325715213</v>
+      </c>
+      <c r="Q13">
+        <v>0.04158201992533334</v>
+      </c>
+      <c r="R13">
+        <v>0.374238179328</v>
+      </c>
+      <c r="S13">
+        <v>0.0002144442714130161</v>
+      </c>
+      <c r="T13">
+        <v>0.0002144442714130161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.765557333333334</v>
+      </c>
+      <c r="H14">
+        <v>23.296672</v>
+      </c>
+      <c r="I14">
+        <v>0.6857396436240636</v>
+      </c>
+      <c r="J14">
+        <v>0.6857396436240637</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.383699</v>
+      </c>
+      <c r="N14">
+        <v>4.151097</v>
+      </c>
+      <c r="O14">
+        <v>0.08080976933214185</v>
+      </c>
+      <c r="P14">
+        <v>0.08080976933214185</v>
+      </c>
+      <c r="Q14">
+        <v>10.745193916576</v>
+      </c>
+      <c r="R14">
+        <v>96.70674524918401</v>
+      </c>
+      <c r="S14">
+        <v>0.05541446242316573</v>
+      </c>
+      <c r="T14">
+        <v>0.05541446242316574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.05673015562711</v>
-      </c>
-      <c r="H9">
-        <v>3.05673015562711</v>
-      </c>
-      <c r="I9">
-        <v>0.6753580303206933</v>
-      </c>
-      <c r="J9">
-        <v>0.6753580303206933</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.16483496370046</v>
-      </c>
-      <c r="N9">
-        <v>4.16483496370046</v>
-      </c>
-      <c r="O9">
-        <v>0.3685035670682129</v>
-      </c>
-      <c r="P9">
-        <v>0.3685035670682129</v>
-      </c>
-      <c r="Q9">
-        <v>12.73077662675333</v>
-      </c>
-      <c r="R9">
-        <v>12.73077662675333</v>
-      </c>
-      <c r="S9">
-        <v>0.2488718432213378</v>
-      </c>
-      <c r="T9">
-        <v>0.2488718432213378</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.765557333333334</v>
+      </c>
+      <c r="H15">
+        <v>23.296672</v>
+      </c>
+      <c r="I15">
+        <v>0.6857396436240636</v>
+      </c>
+      <c r="J15">
+        <v>0.6857396436240637</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.462094</v>
+      </c>
+      <c r="N15">
+        <v>7.386282</v>
+      </c>
+      <c r="O15">
+        <v>0.1437893994387872</v>
+      </c>
+      <c r="P15">
+        <v>0.1437893994387872</v>
+      </c>
+      <c r="Q15">
+        <v>19.119532117056</v>
+      </c>
+      <c r="R15">
+        <v>172.075789053504</v>
+      </c>
+      <c r="S15">
+        <v>0.09860209152807207</v>
+      </c>
+      <c r="T15">
+        <v>0.0986020915280721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.765557333333334</v>
+      </c>
+      <c r="H16">
+        <v>23.296672</v>
+      </c>
+      <c r="I16">
+        <v>0.6857396436240636</v>
+      </c>
+      <c r="J16">
+        <v>0.6857396436240637</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.336036333333333</v>
+      </c>
+      <c r="N16">
+        <v>13.008109</v>
+      </c>
+      <c r="O16">
+        <v>0.2532299986575496</v>
+      </c>
+      <c r="P16">
+        <v>0.2532299986575496</v>
+      </c>
+      <c r="Q16">
+        <v>33.67173874591644</v>
+      </c>
+      <c r="R16">
+        <v>303.0456487132481</v>
+      </c>
+      <c r="S16">
+        <v>0.1736498490343502</v>
+      </c>
+      <c r="T16">
+        <v>0.1736498490343502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.765557333333334</v>
+      </c>
+      <c r="H17">
+        <v>23.296672</v>
+      </c>
+      <c r="I17">
+        <v>0.6857396436240636</v>
+      </c>
+      <c r="J17">
+        <v>0.6857396436240637</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.941088000000001</v>
+      </c>
+      <c r="N17">
+        <v>26.823264</v>
+      </c>
+      <c r="O17">
+        <v>0.5221708325715213</v>
+      </c>
+      <c r="P17">
+        <v>0.5221708325715213</v>
+      </c>
+      <c r="Q17">
+        <v>69.43253148637868</v>
+      </c>
+      <c r="R17">
+        <v>624.892783377408</v>
+      </c>
+      <c r="S17">
+        <v>0.3580732406384756</v>
+      </c>
+      <c r="T17">
+        <v>0.3580732406384757</v>
       </c>
     </row>
   </sheetData>
